--- a/test/NovVacation.xlsx
+++ b/test/NovVacation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazarethj\OneDrive - Broadridge Financial Solutions, Inc\personal\projects\gp\groupInXLS\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D7A4A-4740-403C-AEA6-FA25B2E4DCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81667293-BD2B-432E-956D-943799E72537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="744" windowWidth="15084" windowHeight="10656" activeTab="5" xr2:uid="{A6B7076B-D381-44AE-8C4A-76BB81508719}"/>
+    <workbookView xWindow="168" yWindow="360" windowWidth="14076" windowHeight="11868" activeTab="3" xr2:uid="{A6B7076B-D381-44AE-8C4A-76BB81508719}"/>
   </bookViews>
   <sheets>
     <sheet name="nov.gbp" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
   <si>
     <t>transaction amounts</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>4:0</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -283,15 +286,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,7 +615,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,27 +637,27 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="11"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -732,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="3">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -797,7 +801,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,27 +823,27 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="11"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -918,7 +922,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="3">
-        <v>10.53</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -982,7 +986,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,27 +1008,27 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="11"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1096,12 +1100,14 @@
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="3">
-        <v>5.0999999999999996</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
@@ -1164,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EC46B-4B92-48B6-8E20-E666244151B9}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,27 +1193,27 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="11"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1279,12 +1285,14 @@
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -1348,7 +1356,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,27 +1378,27 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="11"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1469,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="E3" s="5">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -1532,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D92B5F-305C-43FB-8777-3C796CCFD13C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1598,7 @@
       <c r="F2" s="7">
         <v>10.224000071322624</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>0</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -1619,7 +1627,7 @@
       <c r="F3" s="7">
         <v>9.0028788129820875E-2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -1648,7 +1656,7 @@
       <c r="F4" s="7">
         <v>7.9181283216825674E-2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>2</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -1677,7 +1685,7 @@
       <c r="F5" s="7">
         <v>8.0332961547243382</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>3</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1706,52 +1714,52 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
